--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -364,6 +364,15 @@
     <t>11. Новая новость появляется в списке всех новостей</t>
   </si>
   <si>
+    <t>Добавление новости с некорректным временем</t>
+  </si>
+  <si>
+    <t>9. На часах с помощью клавиатуры выбрать некорректное время 27:00 и нажать ОК</t>
+  </si>
+  <si>
+    <t>9. Время не вводится. Проявляется уведомление " Указано недопустимое время"</t>
+  </si>
+  <si>
     <t>Сортировка новостей</t>
   </si>
   <si>
@@ -458,6 +467,12 @@
   </si>
   <si>
     <t>11. Новая заявка появляется в списке всех заявок</t>
+  </si>
+  <si>
+    <t>Добавление заявки с некорректным временем</t>
+  </si>
+  <si>
+    <t>9. На часах с помощью клавиатуры выбрать некорректное время 28:00 и нажать ОК</t>
   </si>
   <si>
     <t>Фильтрация заявок</t>
@@ -527,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -549,11 +564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -567,7 +577,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF1F1F1F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -720,51 +730,51 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -772,13 +782,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1062,52 +1072,52 @@
       <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1124,52 +1134,52 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1177,7 +1187,7 @@
       <c r="A10" s="10">
         <v>3.0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1186,52 +1196,52 @@
       <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1239,7 +1249,7 @@
       <c r="A14" s="10">
         <v>4.0</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1248,52 +1258,52 @@
       <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1301,7 +1311,7 @@
       <c r="A18" s="10">
         <v>5.0</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1310,52 +1320,52 @@
       <c r="D18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1372,88 +1382,88 @@
       <c r="D22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" ht="83.25" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>7.0</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1470,26 +1480,26 @@
       <c r="D28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" ht="54.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1506,219 +1516,219 @@
       <c r="D30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="13" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="13" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="13" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="13" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="13" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="13" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="13" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>10.0</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <v>11.0</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <v>12.0</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <v>13.0</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <v>14.0</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1735,143 +1745,143 @@
       <c r="D43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="13" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="13" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="13" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="13" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1883,168 +1893,158 @@
         <v>117</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="10">
-        <v>17.0</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="10">
-        <v>18.0</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>132</v>
+        <v>17.0</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="13" t="s">
+      <c r="F63" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="13" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2054,86 +2054,86 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>135</v>
+      <c r="F65" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>137</v>
+      <c r="A66" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>139</v>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10">
-        <v>19.0</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>96</v>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>141</v>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>143</v>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71">
@@ -2142,63 +2142,73 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>145</v>
+      <c r="F71" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>61</v>
+      <c r="A72" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>106</v>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>108</v>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>110</v>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -2207,161 +2217,151 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>19.0</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G85" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="13" t="s">
+    <row r="86">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G86" s="12" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="10">
-        <v>20.0</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="10">
-        <v>21.0</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="87">
@@ -2370,285 +2370,387 @@
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="10">
+    </row>
+    <row r="102">
+      <c r="A102" s="10">
         <v>22.0</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C102" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E102" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="13" t="s">
+      <c r="F102" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="13" t="s">
+    <row r="103">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G104" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="13" t="s">
+    <row r="105">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G105" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="10">
-        <v>23.0</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E107" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" s="13" t="s">
+      <c r="F107" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="13" t="s">
+    <row r="108">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="32"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="32"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="32"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="32"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="32"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="32"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="32"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="32"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="32"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="32"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="32"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="32"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="32"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
+      <c r="G108" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="32"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
+      <c r="A110" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="32"/>
@@ -10777,53 +10879,170 @@
       <c r="F1015" s="33"/>
       <c r="G1015" s="33"/>
     </row>
+    <row r="1016">
+      <c r="A1016" s="32"/>
+      <c r="B1016" s="33"/>
+      <c r="C1016" s="33"/>
+      <c r="D1016" s="33"/>
+      <c r="E1016" s="34"/>
+      <c r="F1016" s="33"/>
+      <c r="G1016" s="33"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="32"/>
+      <c r="B1017" s="33"/>
+      <c r="C1017" s="33"/>
+      <c r="D1017" s="33"/>
+      <c r="E1017" s="34"/>
+      <c r="F1017" s="33"/>
+      <c r="G1017" s="33"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="32"/>
+      <c r="B1018" s="33"/>
+      <c r="C1018" s="33"/>
+      <c r="D1018" s="33"/>
+      <c r="E1018" s="34"/>
+      <c r="F1018" s="33"/>
+      <c r="G1018" s="33"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="32"/>
+      <c r="B1019" s="33"/>
+      <c r="C1019" s="33"/>
+      <c r="D1019" s="33"/>
+      <c r="E1019" s="34"/>
+      <c r="F1019" s="33"/>
+      <c r="G1019" s="33"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="32"/>
+      <c r="B1020" s="33"/>
+      <c r="C1020" s="33"/>
+      <c r="D1020" s="33"/>
+      <c r="E1020" s="34"/>
+      <c r="F1020" s="33"/>
+      <c r="G1020" s="33"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="32"/>
+      <c r="B1021" s="33"/>
+      <c r="C1021" s="33"/>
+      <c r="D1021" s="33"/>
+      <c r="E1021" s="34"/>
+      <c r="F1021" s="33"/>
+      <c r="G1021" s="33"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="32"/>
+      <c r="B1022" s="33"/>
+      <c r="C1022" s="33"/>
+      <c r="D1022" s="33"/>
+      <c r="E1022" s="34"/>
+      <c r="F1022" s="33"/>
+      <c r="G1022" s="33"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="32"/>
+      <c r="B1023" s="33"/>
+      <c r="C1023" s="33"/>
+      <c r="D1023" s="33"/>
+      <c r="E1023" s="34"/>
+      <c r="F1023" s="33"/>
+      <c r="G1023" s="33"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="32"/>
+      <c r="B1024" s="33"/>
+      <c r="C1024" s="33"/>
+      <c r="D1024" s="33"/>
+      <c r="E1024" s="34"/>
+      <c r="F1024" s="33"/>
+      <c r="G1024" s="33"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="32"/>
+      <c r="B1025" s="33"/>
+      <c r="C1025" s="33"/>
+      <c r="D1025" s="33"/>
+      <c r="E1025" s="34"/>
+      <c r="F1025" s="33"/>
+      <c r="G1025" s="33"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="32"/>
+      <c r="B1026" s="33"/>
+      <c r="C1026" s="33"/>
+      <c r="D1026" s="33"/>
+      <c r="E1026" s="34"/>
+      <c r="F1026" s="33"/>
+      <c r="G1026" s="33"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="32"/>
+      <c r="B1027" s="33"/>
+      <c r="C1027" s="33"/>
+      <c r="D1027" s="33"/>
+      <c r="E1027" s="34"/>
+      <c r="F1027" s="33"/>
+      <c r="G1027" s="33"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="32"/>
+      <c r="B1028" s="33"/>
+      <c r="C1028" s="33"/>
+      <c r="D1028" s="33"/>
+      <c r="E1028" s="34"/>
+      <c r="F1028" s="33"/>
+      <c r="G1028" s="33"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="32"/>
+      <c r="B1029" s="33"/>
+      <c r="C1029" s="33"/>
+      <c r="D1029" s="33"/>
+      <c r="E1029" s="34"/>
+      <c r="F1029" s="33"/>
+      <c r="G1029" s="33"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="32"/>
+      <c r="B1030" s="33"/>
+      <c r="C1030" s="33"/>
+      <c r="D1030" s="33"/>
+      <c r="E1030" s="34"/>
+      <c r="F1030" s="33"/>
+      <c r="G1030" s="33"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="32"/>
+      <c r="B1031" s="33"/>
+      <c r="C1031" s="33"/>
+      <c r="D1031" s="33"/>
+      <c r="E1031" s="34"/>
+      <c r="F1031" s="33"/>
+      <c r="G1031" s="33"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="32"/>
+      <c r="B1032" s="33"/>
+      <c r="C1032" s="33"/>
+      <c r="D1032" s="33"/>
+      <c r="E1032" s="34"/>
+      <c r="F1032" s="33"/>
+      <c r="G1032" s="33"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="32"/>
+      <c r="B1033" s="33"/>
+      <c r="C1033" s="33"/>
+      <c r="D1033" s="33"/>
+      <c r="E1033" s="34"/>
+      <c r="F1033" s="33"/>
+      <c r="G1033" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="D68:D78"/>
-    <mergeCell ref="E68:E78"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="E84:E88"/>
+  <mergeCells count="95">
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A2:A5"/>
@@ -10833,6 +11052,7 @@
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="E6:E9"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D18:D21"/>
@@ -10841,29 +11061,83 @@
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="D30:D37"/>
     <mergeCell ref="E30:E37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A37"/>
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C54:C62"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E54:E62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A43:A53"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B77:B87"/>
+    <mergeCell ref="C77:C87"/>
+    <mergeCell ref="D77:D87"/>
+    <mergeCell ref="E77:E87"/>
+    <mergeCell ref="A77:A87"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="C88:C96"/>
+    <mergeCell ref="D88:D96"/>
+    <mergeCell ref="E88:E96"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A107:A109"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
